--- a/Experiments/Inner Product/Big Area, Vendor/Combined.xlsx
+++ b/Experiments/Inner Product/Big Area, Vendor/Combined.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Distributed Monitoring Thesis\Experiments\Inner Product\Big Area, Vendor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C5C052-5A44-4F79-8266-A1DAFBCA5E1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADAFD3-1C99-4600-8AD5-3A67F0F267CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot" sheetId="4" r:id="rId2"/>
+    <sheet name="Bandwidth Graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$K$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="21">
   <si>
     <t>LoopIndex</t>
   </si>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,30 +116,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -147,27 +133,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,7 +192,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
+              <c:f>'Bandwidth Graph'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -252,77 +234,126 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>'Bandwidth Graph'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>2450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2450</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>22050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26450</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54450</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>64800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>168200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$10</c:f>
+              <c:f>'Bandwidth Graph'!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>144500</c:v>
+                  <c:v>561200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>561200</c:v>
+                  <c:v>1487700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1487700</c:v>
+                  <c:v>2744000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2744000</c:v>
+                  <c:v>9461900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9461900</c:v>
+                  <c:v>18210000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27907200</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>34946800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45081600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55242000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>75680000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>83349000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95431600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109576192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>136416000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>203860800</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>246758400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>784821200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,7 +370,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
+              <c:f>'Bandwidth Graph'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -381,77 +412,126 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>'Bandwidth Graph'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>2450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2450</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>22050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26450</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54450</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>64800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>168200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$10</c:f>
+              <c:f>'Bandwidth Graph'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>142900</c:v>
+                  <c:v>441600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>441600</c:v>
+                  <c:v>935100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>935100</c:v>
+                  <c:v>1966400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1966400</c:v>
+                  <c:v>3101700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3101700</c:v>
+                  <c:v>6540000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9936000</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>16954000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22297600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26406000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>36640000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>37970100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41685200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53411840</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64366400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73530000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89298000</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>133617600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>341782400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,7 +548,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
+              <c:f>'Bandwidth Graph'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,77 +590,126 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>'Bandwidth Graph'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>2450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2450</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>22050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26450</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54450</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>64800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>168200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$10</c:f>
+              <c:f>'Bandwidth Graph'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>47469</c:v>
+                  <c:v>174671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174671</c:v>
+                  <c:v>432389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>432389</c:v>
+                  <c:v>805012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>805012</c:v>
+                  <c:v>2700348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2700348</c:v>
+                  <c:v>5505338</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9005455</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>11275371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14725539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18635989</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>23005653</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>27568131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30423103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37688927</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45085703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51755845</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70791230</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>81006561</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>252307094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,7 +726,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$E$1</c:f>
+              <c:f>'Bandwidth Graph'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -639,77 +768,126 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>'Bandwidth Graph'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>2450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2450</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>22050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26450</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54450</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>64800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>168200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$E$2:$E$10</c:f>
+              <c:f>'Bandwidth Graph'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>20077</c:v>
+                  <c:v>72819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72819</c:v>
+                  <c:v>205679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205679</c:v>
+                  <c:v>444123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>444123</c:v>
+                  <c:v>1106653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1106653</c:v>
+                  <c:v>2254395</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4324458</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>4904486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5124518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8104242</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10004866</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>11029672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14552199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19665878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23524986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27004864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35397709</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>42125061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>126155641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +904,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
+              <c:f>'Bandwidth Graph'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -782,77 +960,126 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$10</c:f>
+              <c:f>'Bandwidth Graph'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>2450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2450</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>22050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26450</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54450</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>64800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>168200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$F$2:$F$10</c:f>
+              <c:f>'Bandwidth Graph'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>17500</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>157500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157500</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>360000</c:v>
+                  <c:v>1102500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1102500</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3240000</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3430000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4480000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5670000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7000000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>7717500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9257500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11468800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13720000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15750000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19057500</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>16200000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42050000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,7 +1130,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -913,7 +1140,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Vector Length</a:t>
                 </a:r>
               </a:p>
@@ -932,7 +1159,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -967,7 +1194,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1012,7 +1239,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1022,7 +1249,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Bandwidth</a:t>
                 </a:r>
               </a:p>
@@ -1041,7 +1268,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1076,7 +1303,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1106,7 +1333,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1168,7 +1395,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1787,16 +2014,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1827,9 +2054,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yuval" refreshedDate="43689.423405092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{83838056-3459-4C51-9263-74D0C3D4AAD8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yuval" refreshedDate="43702.712618055557" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="95" xr:uid="{0ECBDAE4-4DF9-4C65-98DD-477D284780CB}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K46" sheet="Sheet1"/>
+    <worksheetSource ref="A1:K96" sheet="Data"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="LoopIndex" numFmtId="0">
@@ -1845,14 +2072,24 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Vector Length" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="168200" count="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="168200" count="19">
         <n v="50"/>
         <n v="200"/>
         <n v="450"/>
         <n v="800"/>
         <n v="2450"/>
+        <n v="5000"/>
         <n v="7200"/>
+        <n v="9800"/>
+        <n v="12800"/>
+        <n v="16200"/>
         <n v="20000"/>
+        <n v="22050"/>
+        <n v="26450"/>
+        <n v="32768"/>
+        <n v="39200"/>
+        <n v="45000"/>
+        <n v="54450"/>
         <n v="64800"/>
         <n v="168200"/>
       </sharedItems>
@@ -1891,7 +2128,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="95">
   <r>
     <n v="750"/>
     <x v="0"/>
@@ -2223,6 +2460,71 @@
     <x v="5"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
+    <n v="5505338"/>
+    <n v="9169"/>
+    <n v="22"/>
+    <n v="1058532002"/>
+    <n v="2371038708"/>
+    <n v="4234128008"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="18210000"/>
+    <n v="4851"/>
+    <n v="6"/>
+    <n v="637769828"/>
+    <n v="2371038708"/>
+    <n v="2551079312"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="6540000"/>
+    <n v="1679"/>
+    <n v="1"/>
+    <n v="904375971"/>
+    <n v="2371038708"/>
+    <n v="3617503884"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="2250000"/>
+    <n v="450"/>
+    <n v="9"/>
+    <n v="828113573.5"/>
+    <n v="2371038708"/>
+    <n v="3312454294"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="2254395"/>
+    <n v="6691"/>
+    <n v="9"/>
+    <n v="739947171.5"/>
+    <n v="2371038708"/>
+    <n v="2959788686"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
     <n v="9005455"/>
     <n v="9584"/>
     <n v="25"/>
@@ -2233,7 +2535,7 @@
   <r>
     <n v="750"/>
     <x v="1"/>
-    <x v="5"/>
+    <x v="6"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="27907200"/>
@@ -2246,7 +2548,7 @@
   <r>
     <n v="750"/>
     <x v="2"/>
-    <x v="5"/>
+    <x v="6"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="9936000"/>
@@ -2259,7 +2561,7 @@
   <r>
     <n v="750"/>
     <x v="3"/>
-    <x v="5"/>
+    <x v="6"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="3240000"/>
@@ -2272,7 +2574,7 @@
   <r>
     <n v="750"/>
     <x v="4"/>
-    <x v="5"/>
+    <x v="6"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="4324458"/>
@@ -2285,7 +2587,202 @@
   <r>
     <n v="750"/>
     <x v="0"/>
-    <x v="6"/>
+    <x v="7"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="11275371"/>
+    <n v="9292"/>
+    <n v="23"/>
+    <n v="554726307"/>
+    <n v="1283586302"/>
+    <n v="2218905228"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="34946800"/>
+    <n v="4685"/>
+    <n v="5"/>
+    <n v="644020222"/>
+    <n v="1283586302"/>
+    <n v="2576080888"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="16954000"/>
+    <n v="2208"/>
+    <n v="1"/>
+    <n v="500609857"/>
+    <n v="1283586302"/>
+    <n v="2002439428"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="3430000"/>
+    <n v="350"/>
+    <n v="7"/>
+    <n v="458294043.5"/>
+    <n v="1283586302"/>
+    <n v="1833176174"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="4904486"/>
+    <n v="6891"/>
+    <n v="10"/>
+    <n v="514577949"/>
+    <n v="1283586302"/>
+    <n v="2058311796"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="14725539"/>
+    <n v="9550"/>
+    <n v="23"/>
+    <n v="412376371.5"/>
+    <n v="976677057"/>
+    <n v="1649505486"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="45081600"/>
+    <n v="4648"/>
+    <n v="4"/>
+    <n v="266120822.5"/>
+    <n v="976677057"/>
+    <n v="1064483290"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="22297600"/>
+    <n v="2239"/>
+    <n v="1"/>
+    <n v="395822814"/>
+    <n v="976677057"/>
+    <n v="1583291256"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="4480000"/>
+    <n v="350"/>
+    <n v="7"/>
+    <n v="352942856.5"/>
+    <n v="976677057"/>
+    <n v="1411771426"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="5124518"/>
+    <n v="6766"/>
+    <n v="8"/>
+    <n v="335940465"/>
+    <n v="976677057"/>
+    <n v="1343761860"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="18635989"/>
+    <n v="10163"/>
+    <n v="23"/>
+    <n v="341001384.5"/>
+    <n v="807154265"/>
+    <n v="1364005538"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="55242000"/>
+    <n v="4448"/>
+    <n v="4"/>
+    <n v="220100041.5"/>
+    <n v="807154265"/>
+    <n v="880400166"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="26406000"/>
+    <n v="2079"/>
+    <n v="1"/>
+    <n v="328080672.5"/>
+    <n v="807154265"/>
+    <n v="1312322690"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="5670000"/>
+    <n v="350"/>
+    <n v="7"/>
+    <n v="287920560.5"/>
+    <n v="807154265"/>
+    <n v="1151682242"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="8104242"/>
+    <n v="6527"/>
+    <n v="10"/>
+    <n v="317647177"/>
+    <n v="807154265"/>
+    <n v="1270588708"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="10"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="23005653"/>
@@ -2298,7 +2795,7 @@
   <r>
     <n v="750"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="10"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="75680000"/>
@@ -2311,7 +2808,7 @@
   <r>
     <n v="750"/>
     <x v="2"/>
-    <x v="6"/>
+    <x v="10"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="36640000"/>
@@ -2324,7 +2821,7 @@
   <r>
     <n v="750"/>
     <x v="3"/>
-    <x v="6"/>
+    <x v="10"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="7000000"/>
@@ -2337,7 +2834,7 @@
   <r>
     <n v="750"/>
     <x v="4"/>
-    <x v="6"/>
+    <x v="10"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="10004866"/>
@@ -2350,7 +2847,397 @@
   <r>
     <n v="750"/>
     <x v="0"/>
-    <x v="7"/>
+    <x v="11"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="27568131"/>
+    <n v="9823"/>
+    <n v="25"/>
+    <n v="252239738.5"/>
+    <n v="603179688"/>
+    <n v="1008958954"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="83349000"/>
+    <n v="4939"/>
+    <n v="4"/>
+    <n v="152254348.5"/>
+    <n v="603179688"/>
+    <n v="609017394"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="37970100"/>
+    <n v="2193"/>
+    <n v="1"/>
+    <n v="235139293.5"/>
+    <n v="603179688"/>
+    <n v="940557174"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="7717500"/>
+    <n v="350"/>
+    <n v="7"/>
+    <n v="215200184.5"/>
+    <n v="603179688"/>
+    <n v="860800738"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="11"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="11029672"/>
+    <n v="7175"/>
+    <n v="10"/>
+    <n v="202994408.5"/>
+    <n v="603179688"/>
+    <n v="811977634"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="30423103"/>
+    <n v="9592"/>
+    <n v="23"/>
+    <n v="208139310.5"/>
+    <n v="504281156"/>
+    <n v="832557242"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="95431600"/>
+    <n v="4700"/>
+    <n v="3"/>
+    <n v="243291478"/>
+    <n v="504281156"/>
+    <n v="973165912"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="12"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="41685200"/>
+    <n v="1983"/>
+    <n v="1"/>
+    <n v="204976688"/>
+    <n v="504281156"/>
+    <n v="819906752"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="12"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="9257500"/>
+    <n v="350"/>
+    <n v="7"/>
+    <n v="183812976"/>
+    <n v="504281156"/>
+    <n v="735251904"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="12"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="14552199"/>
+    <n v="7266"/>
+    <n v="11"/>
+    <n v="164860063"/>
+    <n v="504281156"/>
+    <n v="659440252"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="37688927"/>
+    <n v="9755"/>
+    <n v="23"/>
+    <n v="170133394"/>
+    <n v="414181023"/>
+    <n v="680533576"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="109576192"/>
+    <n v="4339"/>
+    <n v="3"/>
+    <n v="199820624.5"/>
+    <n v="414181023"/>
+    <n v="799282498"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="53411840"/>
+    <n v="2063"/>
+    <n v="1"/>
+    <n v="174827013.5"/>
+    <n v="414181023"/>
+    <n v="699308054"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="13"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="11468800"/>
+    <n v="350"/>
+    <n v="7"/>
+    <n v="155637667.5"/>
+    <n v="414181023"/>
+    <n v="622550670"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="13"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="19665878"/>
+    <n v="7882"/>
+    <n v="12"/>
+    <n v="146181235"/>
+    <n v="414181023"/>
+    <n v="584724940"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="14"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="45085703"/>
+    <n v="9715"/>
+    <n v="23"/>
+    <n v="142662212"/>
+    <n v="349824060"/>
+    <n v="570648848"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="136416000"/>
+    <n v="4502"/>
+    <n v="3"/>
+    <n v="168858642"/>
+    <n v="349824060"/>
+    <n v="675434568"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="64366400"/>
+    <n v="2068"/>
+    <n v="1"/>
+    <n v="147603286"/>
+    <n v="349824060"/>
+    <n v="590413144"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="14"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="13720000"/>
+    <n v="350"/>
+    <n v="7"/>
+    <n v="131432331.5"/>
+    <n v="349824060"/>
+    <n v="525729326"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="14"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="23524986"/>
+    <n v="7731"/>
+    <n v="12"/>
+    <n v="114581573"/>
+    <n v="349824060"/>
+    <n v="458326292"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="15"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="51755845"/>
+    <n v="9906"/>
+    <n v="23"/>
+    <n v="125843074"/>
+    <n v="309485629"/>
+    <n v="503372296"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="162000000"/>
+    <n v="4657"/>
+    <n v="3"/>
+    <n v="149384493"/>
+    <n v="309485629"/>
+    <n v="597537972"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="73530000"/>
+    <n v="2055"/>
+    <n v="1"/>
+    <n v="130355899"/>
+    <n v="309485629"/>
+    <n v="521423596"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="15"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="15750000"/>
+    <n v="350"/>
+    <n v="7"/>
+    <n v="113692386"/>
+    <n v="309485629"/>
+    <n v="454769544"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="15"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="27004864"/>
+    <n v="7549"/>
+    <n v="12"/>
+    <n v="97204808.5"/>
+    <n v="309485629"/>
+    <n v="388819234"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="16"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="70791230"/>
+    <n v="10702"/>
+    <n v="26"/>
+    <n v="105741061.5"/>
+    <n v="255358641"/>
+    <n v="422964246"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="203860800"/>
+    <n v="4846"/>
+    <n v="3"/>
+    <n v="123219162"/>
+    <n v="255358641"/>
+    <n v="492876648"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="89298000"/>
+    <n v="2056"/>
+    <n v="1"/>
+    <n v="103918946.5"/>
+    <n v="255358641"/>
+    <n v="415675786"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="3"/>
+    <x v="16"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="19057500"/>
+    <n v="350"/>
+    <n v="7"/>
+    <n v="95910624.5"/>
+    <n v="255358641"/>
+    <n v="383642498"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="4"/>
+    <x v="16"/>
+    <n v="25"/>
+    <s v="Lower0.5Upper2"/>
+    <n v="35397709"/>
+    <n v="8139"/>
+    <n v="13"/>
+    <n v="88352681"/>
+    <n v="255358641"/>
+    <n v="353410724"/>
+  </r>
+  <r>
+    <n v="750"/>
+    <x v="0"/>
+    <x v="17"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="81006561"/>
@@ -2363,7 +3250,7 @@
   <r>
     <n v="750"/>
     <x v="1"/>
-    <x v="7"/>
+    <x v="17"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="246758400"/>
@@ -2376,7 +3263,7 @@
   <r>
     <n v="750"/>
     <x v="2"/>
-    <x v="7"/>
+    <x v="17"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="133617600"/>
@@ -2389,7 +3276,7 @@
   <r>
     <n v="750"/>
     <x v="3"/>
-    <x v="7"/>
+    <x v="17"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="16200000"/>
@@ -2402,7 +3289,7 @@
   <r>
     <n v="750"/>
     <x v="4"/>
-    <x v="7"/>
+    <x v="17"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="42125061"/>
@@ -2415,7 +3302,7 @@
   <r>
     <n v="750"/>
     <x v="0"/>
-    <x v="8"/>
+    <x v="18"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="252307094"/>
@@ -2428,7 +3315,7 @@
   <r>
     <n v="750"/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="18"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="784821200"/>
@@ -2441,7 +3328,7 @@
   <r>
     <n v="750"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="18"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="341782400"/>
@@ -2454,7 +3341,7 @@
   <r>
     <n v="750"/>
     <x v="3"/>
-    <x v="8"/>
+    <x v="18"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="42050000"/>
@@ -2467,7 +3354,7 @@
   <r>
     <n v="750"/>
     <x v="4"/>
-    <x v="8"/>
+    <x v="18"/>
     <n v="25"/>
     <s v="Lower0.5Upper2"/>
     <n v="126155641"/>
@@ -2481,8 +3368,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E51CB617-B67C-4FB4-B134-9566DCEFF52A}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF493022-B5B5-4265-81D4-28C8B913CE74}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -2495,8 +3382,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="20">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2506,6 +3393,16 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2521,7 +3418,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="20">
     <i>
       <x/>
     </i>
@@ -2548,6 +3445,36 @@
     </i>
     <i>
       <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i t="grand">
       <x/>
@@ -2853,18 +3780,3398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>750</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>47469</v>
+      </c>
+      <c r="G2">
+        <v>8277</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>19041282836</v>
+      </c>
+      <c r="J2">
+        <v>46704750402</v>
+      </c>
+      <c r="K2">
+        <v>76165131344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>750</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>144500</v>
+      </c>
+      <c r="G3">
+        <v>3846</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>22971466707.5</v>
+      </c>
+      <c r="J3">
+        <v>46704750402</v>
+      </c>
+      <c r="K3">
+        <v>91885866830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>750</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>142900</v>
+      </c>
+      <c r="G4">
+        <v>3814</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>17622591234.5</v>
+      </c>
+      <c r="J4">
+        <v>46704750402</v>
+      </c>
+      <c r="K4">
+        <v>70490364938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>750</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>17500</v>
+      </c>
+      <c r="G5">
+        <v>350</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>17622591234.5</v>
+      </c>
+      <c r="J5">
+        <v>46704750402</v>
+      </c>
+      <c r="K5">
+        <v>70490364938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>750</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>20077</v>
+      </c>
+      <c r="G6">
+        <v>4092</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>22238705690</v>
+      </c>
+      <c r="J6">
+        <v>46704750402</v>
+      </c>
+      <c r="K6">
+        <v>88954822760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>750</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>174671</v>
+      </c>
+      <c r="G7">
+        <v>7852</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>10882497896</v>
+      </c>
+      <c r="J7">
+        <v>27141628107</v>
+      </c>
+      <c r="K7">
+        <v>43529991584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>750</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>561200</v>
+      </c>
+      <c r="G8">
+        <v>3765</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>13015107038.5</v>
+      </c>
+      <c r="J8">
+        <v>27141628107</v>
+      </c>
+      <c r="K8">
+        <v>52060428154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>750</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>441600</v>
+      </c>
+      <c r="G9">
+        <v>2926</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>9484639378</v>
+      </c>
+      <c r="J9">
+        <v>27141628107</v>
+      </c>
+      <c r="K9">
+        <v>37938557512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>750</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>50000</v>
+      </c>
+      <c r="G10">
+        <v>250</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>9364553975</v>
+      </c>
+      <c r="J10">
+        <v>27141628107</v>
+      </c>
+      <c r="K10">
+        <v>37458215900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>750</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>72819</v>
+      </c>
+      <c r="G11">
+        <v>4410</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>12500224622.5</v>
+      </c>
+      <c r="J11">
+        <v>27141628107</v>
+      </c>
+      <c r="K11">
+        <v>50000898490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>750</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>450</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>432389</v>
+      </c>
+      <c r="G12">
+        <v>8334</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>5362282703</v>
+      </c>
+      <c r="J12">
+        <v>14949342090</v>
+      </c>
+      <c r="K12">
+        <v>21449130812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>750</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>450</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>1487700</v>
+      </c>
+      <c r="G13">
+        <v>4416</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>7374681546.5</v>
+      </c>
+      <c r="J13">
+        <v>14949342090</v>
+      </c>
+      <c r="K13">
+        <v>29498726186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>750</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>450</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>935100</v>
+      </c>
+      <c r="G14">
+        <v>2706</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>4516223851.5</v>
+      </c>
+      <c r="J14">
+        <v>14949342090</v>
+      </c>
+      <c r="K14">
+        <v>18064895406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>750</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>450</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>157500</v>
+      </c>
+      <c r="G15">
+        <v>350</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>5062406586</v>
+      </c>
+      <c r="J15">
+        <v>14949342090</v>
+      </c>
+      <c r="K15">
+        <v>20249626344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>750</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>450</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>205679</v>
+      </c>
+      <c r="G16">
+        <v>5068</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>7150388072.5</v>
+      </c>
+      <c r="J16">
+        <v>14949342090</v>
+      </c>
+      <c r="K16">
+        <v>28601552290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>750</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>800</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>805012</v>
+      </c>
+      <c r="G17">
+        <v>8564</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>4893299194</v>
+      </c>
+      <c r="J17">
+        <v>10159232252</v>
+      </c>
+      <c r="K17">
+        <v>19573196776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>750</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>800</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>2744000</v>
+      </c>
+      <c r="G18">
+        <v>4590</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>2626625874.5</v>
+      </c>
+      <c r="J18">
+        <v>10159232252</v>
+      </c>
+      <c r="K18">
+        <v>10506503498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>750</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>800</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>1966400</v>
+      </c>
+      <c r="G19">
+        <v>3279</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>2548765198.5</v>
+      </c>
+      <c r="J19">
+        <v>10159232252</v>
+      </c>
+      <c r="K19">
+        <v>10195060794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>750</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>800</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>360000</v>
+      </c>
+      <c r="G20">
+        <v>450</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>3521309872</v>
+      </c>
+      <c r="J20">
+        <v>10159232252</v>
+      </c>
+      <c r="K20">
+        <v>14085239488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>750</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>800</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>444123</v>
+      </c>
+      <c r="G21">
+        <v>6520</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>4374122131</v>
+      </c>
+      <c r="J21">
+        <v>10159232252</v>
+      </c>
+      <c r="K21">
+        <v>17496488524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>750</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>2450</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>2700348</v>
+      </c>
+      <c r="G22">
+        <v>9198</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>2033123842.5</v>
+      </c>
+      <c r="J22">
+        <v>4377943536</v>
+      </c>
+      <c r="K22">
+        <v>8132495370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>750</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>2450</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>9461900</v>
+      </c>
+      <c r="G23">
+        <v>5133</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>1154518918.5</v>
+      </c>
+      <c r="J23">
+        <v>4377943536</v>
+      </c>
+      <c r="K23">
+        <v>4618075674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>750</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>2450</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>3101700</v>
+      </c>
+      <c r="G24">
+        <v>1618</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1624381079.5</v>
+      </c>
+      <c r="J24">
+        <v>4377943536</v>
+      </c>
+      <c r="K24">
+        <v>6497524318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>750</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>2450</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>1102500</v>
+      </c>
+      <c r="G25">
+        <v>450</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>1538173169</v>
+      </c>
+      <c r="J25">
+        <v>4377943536</v>
+      </c>
+      <c r="K25">
+        <v>6152692676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>750</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>2450</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>1106653</v>
+      </c>
+      <c r="G26">
+        <v>6368</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>1367782123.5</v>
+      </c>
+      <c r="J26">
+        <v>4377943536</v>
+      </c>
+      <c r="K26">
+        <v>5471128494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>750</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>5505338</v>
+      </c>
+      <c r="G27">
+        <v>9169</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
+      </c>
+      <c r="I27">
+        <v>1058532002</v>
+      </c>
+      <c r="J27">
+        <v>2371038708</v>
+      </c>
+      <c r="K27">
+        <v>4234128008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>750</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>5000</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>18210000</v>
+      </c>
+      <c r="G28">
+        <v>4851</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>637769828</v>
+      </c>
+      <c r="J28">
+        <v>2371038708</v>
+      </c>
+      <c r="K28">
+        <v>2551079312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>750</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>6540000</v>
+      </c>
+      <c r="G29">
+        <v>1679</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>904375971</v>
+      </c>
+      <c r="J29">
+        <v>2371038708</v>
+      </c>
+      <c r="K29">
+        <v>3617503884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>750</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>5000</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>2250000</v>
+      </c>
+      <c r="G30">
+        <v>450</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>828113573.5</v>
+      </c>
+      <c r="J30">
+        <v>2371038708</v>
+      </c>
+      <c r="K30">
+        <v>3312454294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>750</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>5000</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>2254395</v>
+      </c>
+      <c r="G31">
+        <v>6691</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>739947171.5</v>
+      </c>
+      <c r="J31">
+        <v>2371038708</v>
+      </c>
+      <c r="K31">
+        <v>2959788686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>750</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>7200</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>9005455</v>
+      </c>
+      <c r="G32">
+        <v>9584</v>
+      </c>
+      <c r="H32">
+        <v>25</v>
+      </c>
+      <c r="I32">
+        <v>722594537.5</v>
+      </c>
+      <c r="J32">
+        <v>1677350028</v>
+      </c>
+      <c r="K32">
+        <v>2890378150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>750</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>7200</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>27907200</v>
+      </c>
+      <c r="G33">
+        <v>5170</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>699493169</v>
+      </c>
+      <c r="J33">
+        <v>1677350028</v>
+      </c>
+      <c r="K33">
+        <v>2797972676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>750</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>7200</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>9936000</v>
+      </c>
+      <c r="G34">
+        <v>1772</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>638429206</v>
+      </c>
+      <c r="J34">
+        <v>1677350028</v>
+      </c>
+      <c r="K34">
+        <v>2553716824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>750</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>7200</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>3240000</v>
+      </c>
+      <c r="G35">
+        <v>450</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>587478147</v>
+      </c>
+      <c r="J35">
+        <v>1677350028</v>
+      </c>
+      <c r="K35">
+        <v>2349912588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>750</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>7200</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>4324458</v>
+      </c>
+      <c r="G36">
+        <v>7023</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>677633226.5</v>
+      </c>
+      <c r="J36">
+        <v>1677350028</v>
+      </c>
+      <c r="K36">
+        <v>2710532906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>750</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>9800</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>11275371</v>
+      </c>
+      <c r="G37">
+        <v>9292</v>
+      </c>
+      <c r="H37">
+        <v>23</v>
+      </c>
+      <c r="I37">
+        <v>554726307</v>
+      </c>
+      <c r="J37">
+        <v>1283586302</v>
+      </c>
+      <c r="K37">
+        <v>2218905228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>750</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>9800</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>34946800</v>
+      </c>
+      <c r="G38">
+        <v>4685</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>644020222</v>
+      </c>
+      <c r="J38">
+        <v>1283586302</v>
+      </c>
+      <c r="K38">
+        <v>2576080888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>750</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>9800</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>16954000</v>
+      </c>
+      <c r="G39">
+        <v>2208</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>500609857</v>
+      </c>
+      <c r="J39">
+        <v>1283586302</v>
+      </c>
+      <c r="K39">
+        <v>2002439428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>750</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>9800</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>3430000</v>
+      </c>
+      <c r="G40">
+        <v>350</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>458294043.5</v>
+      </c>
+      <c r="J40">
+        <v>1283586302</v>
+      </c>
+      <c r="K40">
+        <v>1833176174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>750</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>9800</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41">
+        <v>4904486</v>
+      </c>
+      <c r="G41">
+        <v>6891</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>514577949</v>
+      </c>
+      <c r="J41">
+        <v>1283586302</v>
+      </c>
+      <c r="K41">
+        <v>2058311796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>750</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>12800</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42">
+        <v>14725539</v>
+      </c>
+      <c r="G42">
+        <v>9550</v>
+      </c>
+      <c r="H42">
+        <v>23</v>
+      </c>
+      <c r="I42">
+        <v>412376371.5</v>
+      </c>
+      <c r="J42">
+        <v>976677057</v>
+      </c>
+      <c r="K42">
+        <v>1649505486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>750</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>12800</v>
+      </c>
+      <c r="D43">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>45081600</v>
+      </c>
+      <c r="G43">
+        <v>4648</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>266120822.5</v>
+      </c>
+      <c r="J43">
+        <v>976677057</v>
+      </c>
+      <c r="K43">
+        <v>1064483290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>750</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>12800</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>22297600</v>
+      </c>
+      <c r="G44">
+        <v>2239</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>395822814</v>
+      </c>
+      <c r="J44">
+        <v>976677057</v>
+      </c>
+      <c r="K44">
+        <v>1583291256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>750</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>12800</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>4480000</v>
+      </c>
+      <c r="G45">
+        <v>350</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>352942856.5</v>
+      </c>
+      <c r="J45">
+        <v>976677057</v>
+      </c>
+      <c r="K45">
+        <v>1411771426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>750</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>12800</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>5124518</v>
+      </c>
+      <c r="G46">
+        <v>6766</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>335940465</v>
+      </c>
+      <c r="J46">
+        <v>976677057</v>
+      </c>
+      <c r="K46">
+        <v>1343761860</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>750</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>16200</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>18635989</v>
+      </c>
+      <c r="G47">
+        <v>10163</v>
+      </c>
+      <c r="H47">
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>341001384.5</v>
+      </c>
+      <c r="J47">
+        <v>807154265</v>
+      </c>
+      <c r="K47">
+        <v>1364005538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>750</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>16200</v>
+      </c>
+      <c r="D48">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>55242000</v>
+      </c>
+      <c r="G48">
+        <v>4448</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>220100041.5</v>
+      </c>
+      <c r="J48">
+        <v>807154265</v>
+      </c>
+      <c r="K48">
+        <v>880400166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>750</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>16200</v>
+      </c>
+      <c r="D49">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>26406000</v>
+      </c>
+      <c r="G49">
+        <v>2079</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>328080672.5</v>
+      </c>
+      <c r="J49">
+        <v>807154265</v>
+      </c>
+      <c r="K49">
+        <v>1312322690</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>750</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>16200</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>5670000</v>
+      </c>
+      <c r="G50">
+        <v>350</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <v>287920560.5</v>
+      </c>
+      <c r="J50">
+        <v>807154265</v>
+      </c>
+      <c r="K50">
+        <v>1151682242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>750</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>16200</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51">
+        <v>8104242</v>
+      </c>
+      <c r="G51">
+        <v>6527</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>317647177</v>
+      </c>
+      <c r="J51">
+        <v>807154265</v>
+      </c>
+      <c r="K51">
+        <v>1270588708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>750</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>20000</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>23005653</v>
+      </c>
+      <c r="G52">
+        <v>9678</v>
+      </c>
+      <c r="H52">
+        <v>23</v>
+      </c>
+      <c r="I52">
+        <v>276259777.5</v>
+      </c>
+      <c r="J52">
+        <v>652896992</v>
+      </c>
+      <c r="K52">
+        <v>1105039110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>750</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>20000</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <v>75680000</v>
+      </c>
+      <c r="G53">
+        <v>4947</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>179029586</v>
+      </c>
+      <c r="J53">
+        <v>652896992</v>
+      </c>
+      <c r="K53">
+        <v>716118344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>750</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>20000</v>
+      </c>
+      <c r="D54">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>36640000</v>
+      </c>
+      <c r="G54">
+        <v>2328</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>265023157</v>
+      </c>
+      <c r="J54">
+        <v>652896992</v>
+      </c>
+      <c r="K54">
+        <v>1060092628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>750</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>20000</v>
+      </c>
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>7000000</v>
+      </c>
+      <c r="G55">
+        <v>350</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>236633829.5</v>
+      </c>
+      <c r="J55">
+        <v>652896992</v>
+      </c>
+      <c r="K55">
+        <v>946535318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>750</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>20000</v>
+      </c>
+      <c r="D56">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>10004866</v>
+      </c>
+      <c r="G56">
+        <v>7407</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>223229678.5</v>
+      </c>
+      <c r="J56">
+        <v>652896992</v>
+      </c>
+      <c r="K56">
+        <v>892918714</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>750</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>22050</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>27568131</v>
+      </c>
+      <c r="G57">
+        <v>9823</v>
+      </c>
+      <c r="H57">
+        <v>25</v>
+      </c>
+      <c r="I57">
+        <v>252239738.5</v>
+      </c>
+      <c r="J57">
+        <v>603179688</v>
+      </c>
+      <c r="K57">
+        <v>1008958954</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>750</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>22050</v>
+      </c>
+      <c r="D58">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>83349000</v>
+      </c>
+      <c r="G58">
+        <v>4939</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>152254348.5</v>
+      </c>
+      <c r="J58">
+        <v>603179688</v>
+      </c>
+      <c r="K58">
+        <v>609017394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>750</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>22050</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <v>37970100</v>
+      </c>
+      <c r="G59">
+        <v>2193</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>235139293.5</v>
+      </c>
+      <c r="J59">
+        <v>603179688</v>
+      </c>
+      <c r="K59">
+        <v>940557174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>750</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>22050</v>
+      </c>
+      <c r="D60">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>7717500</v>
+      </c>
+      <c r="G60">
+        <v>350</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>215200184.5</v>
+      </c>
+      <c r="J60">
+        <v>603179688</v>
+      </c>
+      <c r="K60">
+        <v>860800738</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>750</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>22050</v>
+      </c>
+      <c r="D61">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>11029672</v>
+      </c>
+      <c r="G61">
+        <v>7175</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>202994408.5</v>
+      </c>
+      <c r="J61">
+        <v>603179688</v>
+      </c>
+      <c r="K61">
+        <v>811977634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>750</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>26450</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>30423103</v>
+      </c>
+      <c r="G62">
+        <v>9592</v>
+      </c>
+      <c r="H62">
+        <v>23</v>
+      </c>
+      <c r="I62">
+        <v>208139310.5</v>
+      </c>
+      <c r="J62">
+        <v>504281156</v>
+      </c>
+      <c r="K62">
+        <v>832557242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>750</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>26450</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>95431600</v>
+      </c>
+      <c r="G63">
+        <v>4700</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>243291478</v>
+      </c>
+      <c r="J63">
+        <v>504281156</v>
+      </c>
+      <c r="K63">
+        <v>973165912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>750</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>26450</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64">
+        <v>41685200</v>
+      </c>
+      <c r="G64">
+        <v>1983</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>204976688</v>
+      </c>
+      <c r="J64">
+        <v>504281156</v>
+      </c>
+      <c r="K64">
+        <v>819906752</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>750</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>26450</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>9257500</v>
+      </c>
+      <c r="G65">
+        <v>350</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65">
+        <v>183812976</v>
+      </c>
+      <c r="J65">
+        <v>504281156</v>
+      </c>
+      <c r="K65">
+        <v>735251904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>750</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>26450</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66">
+        <v>14552199</v>
+      </c>
+      <c r="G66">
+        <v>7266</v>
+      </c>
+      <c r="H66">
+        <v>11</v>
+      </c>
+      <c r="I66">
+        <v>164860063</v>
+      </c>
+      <c r="J66">
+        <v>504281156</v>
+      </c>
+      <c r="K66">
+        <v>659440252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>750</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>32768</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>37688927</v>
+      </c>
+      <c r="G67">
+        <v>9755</v>
+      </c>
+      <c r="H67">
+        <v>23</v>
+      </c>
+      <c r="I67">
+        <v>170133394</v>
+      </c>
+      <c r="J67">
+        <v>414181023</v>
+      </c>
+      <c r="K67">
+        <v>680533576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>750</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>32768</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>109576192</v>
+      </c>
+      <c r="G68">
+        <v>4339</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>199820624.5</v>
+      </c>
+      <c r="J68">
+        <v>414181023</v>
+      </c>
+      <c r="K68">
+        <v>799282498</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>750</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>32768</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>53411840</v>
+      </c>
+      <c r="G69">
+        <v>2063</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>174827013.5</v>
+      </c>
+      <c r="J69">
+        <v>414181023</v>
+      </c>
+      <c r="K69">
+        <v>699308054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>750</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>32768</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>11468800</v>
+      </c>
+      <c r="G70">
+        <v>350</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>155637667.5</v>
+      </c>
+      <c r="J70">
+        <v>414181023</v>
+      </c>
+      <c r="K70">
+        <v>622550670</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>750</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>32768</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71">
+        <v>19665878</v>
+      </c>
+      <c r="G71">
+        <v>7882</v>
+      </c>
+      <c r="H71">
+        <v>12</v>
+      </c>
+      <c r="I71">
+        <v>146181235</v>
+      </c>
+      <c r="J71">
+        <v>414181023</v>
+      </c>
+      <c r="K71">
+        <v>584724940</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>750</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>39200</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>45085703</v>
+      </c>
+      <c r="G72">
+        <v>9715</v>
+      </c>
+      <c r="H72">
+        <v>23</v>
+      </c>
+      <c r="I72">
+        <v>142662212</v>
+      </c>
+      <c r="J72">
+        <v>349824060</v>
+      </c>
+      <c r="K72">
+        <v>570648848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>750</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>39200</v>
+      </c>
+      <c r="D73">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73">
+        <v>136416000</v>
+      </c>
+      <c r="G73">
+        <v>4502</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>168858642</v>
+      </c>
+      <c r="J73">
+        <v>349824060</v>
+      </c>
+      <c r="K73">
+        <v>675434568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>750</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>39200</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>64366400</v>
+      </c>
+      <c r="G74">
+        <v>2068</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>147603286</v>
+      </c>
+      <c r="J74">
+        <v>349824060</v>
+      </c>
+      <c r="K74">
+        <v>590413144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>750</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>39200</v>
+      </c>
+      <c r="D75">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <v>13720000</v>
+      </c>
+      <c r="G75">
+        <v>350</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>131432331.5</v>
+      </c>
+      <c r="J75">
+        <v>349824060</v>
+      </c>
+      <c r="K75">
+        <v>525729326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>750</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>39200</v>
+      </c>
+      <c r="D76">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76">
+        <v>23524986</v>
+      </c>
+      <c r="G76">
+        <v>7731</v>
+      </c>
+      <c r="H76">
+        <v>12</v>
+      </c>
+      <c r="I76">
+        <v>114581573</v>
+      </c>
+      <c r="J76">
+        <v>349824060</v>
+      </c>
+      <c r="K76">
+        <v>458326292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>750</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>45000</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77">
+        <v>51755845</v>
+      </c>
+      <c r="G77">
+        <v>9906</v>
+      </c>
+      <c r="H77">
+        <v>23</v>
+      </c>
+      <c r="I77">
+        <v>125843074</v>
+      </c>
+      <c r="J77">
+        <v>309485629</v>
+      </c>
+      <c r="K77">
+        <v>503372296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>750</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>45000</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78">
+        <v>162000000</v>
+      </c>
+      <c r="G78">
+        <v>4657</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>149384493</v>
+      </c>
+      <c r="J78">
+        <v>309485629</v>
+      </c>
+      <c r="K78">
+        <v>597537972</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>750</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>45000</v>
+      </c>
+      <c r="D79">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>73530000</v>
+      </c>
+      <c r="G79">
+        <v>2055</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>130355899</v>
+      </c>
+      <c r="J79">
+        <v>309485629</v>
+      </c>
+      <c r="K79">
+        <v>521423596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>750</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>45000</v>
+      </c>
+      <c r="D80">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80">
+        <v>15750000</v>
+      </c>
+      <c r="G80">
+        <v>350</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <v>113692386</v>
+      </c>
+      <c r="J80">
+        <v>309485629</v>
+      </c>
+      <c r="K80">
+        <v>454769544</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>750</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>45000</v>
+      </c>
+      <c r="D81">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <v>27004864</v>
+      </c>
+      <c r="G81">
+        <v>7549</v>
+      </c>
+      <c r="H81">
+        <v>12</v>
+      </c>
+      <c r="I81">
+        <v>97204808.5</v>
+      </c>
+      <c r="J81">
+        <v>309485629</v>
+      </c>
+      <c r="K81">
+        <v>388819234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>750</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>54450</v>
+      </c>
+      <c r="D82">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82">
+        <v>70791230</v>
+      </c>
+      <c r="G82">
+        <v>10702</v>
+      </c>
+      <c r="H82">
+        <v>26</v>
+      </c>
+      <c r="I82">
+        <v>105741061.5</v>
+      </c>
+      <c r="J82">
+        <v>255358641</v>
+      </c>
+      <c r="K82">
+        <v>422964246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>750</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>54450</v>
+      </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83">
+        <v>203860800</v>
+      </c>
+      <c r="G83">
+        <v>4846</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>123219162</v>
+      </c>
+      <c r="J83">
+        <v>255358641</v>
+      </c>
+      <c r="K83">
+        <v>492876648</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>750</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>54450</v>
+      </c>
+      <c r="D84">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84">
+        <v>89298000</v>
+      </c>
+      <c r="G84">
+        <v>2056</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>103918946.5</v>
+      </c>
+      <c r="J84">
+        <v>255358641</v>
+      </c>
+      <c r="K84">
+        <v>415675786</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>750</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>54450</v>
+      </c>
+      <c r="D85">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85">
+        <v>19057500</v>
+      </c>
+      <c r="G85">
+        <v>350</v>
+      </c>
+      <c r="H85">
+        <v>7</v>
+      </c>
+      <c r="I85">
+        <v>95910624.5</v>
+      </c>
+      <c r="J85">
+        <v>255358641</v>
+      </c>
+      <c r="K85">
+        <v>383642498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>750</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>54450</v>
+      </c>
+      <c r="D86">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>35397709</v>
+      </c>
+      <c r="G86">
+        <v>8139</v>
+      </c>
+      <c r="H86">
+        <v>13</v>
+      </c>
+      <c r="I86">
+        <v>88352681</v>
+      </c>
+      <c r="J86">
+        <v>255358641</v>
+      </c>
+      <c r="K86">
+        <v>353410724</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>750</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>64800</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87">
+        <v>81006561</v>
+      </c>
+      <c r="G87">
+        <v>11076</v>
+      </c>
+      <c r="H87">
+        <v>25</v>
+      </c>
+      <c r="I87">
+        <v>92707282.5</v>
+      </c>
+      <c r="J87">
+        <v>221111035</v>
+      </c>
+      <c r="K87">
+        <v>370829130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>750</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>64800</v>
+      </c>
+      <c r="D88">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>246758400</v>
+      </c>
+      <c r="G88">
+        <v>4928</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>109658223</v>
+      </c>
+      <c r="J88">
+        <v>221111035</v>
+      </c>
+      <c r="K88">
+        <v>438632892</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>750</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>64800</v>
+      </c>
+      <c r="D89">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89">
+        <v>133617600</v>
+      </c>
+      <c r="G89">
+        <v>2632</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>98947729.5</v>
+      </c>
+      <c r="J89">
+        <v>221111035</v>
+      </c>
+      <c r="K89">
+        <v>395790918</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>750</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>64800</v>
+      </c>
+      <c r="D90">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90">
+        <v>16200000</v>
+      </c>
+      <c r="G90">
+        <v>250</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>90461460</v>
+      </c>
+      <c r="J90">
+        <v>221111035</v>
+      </c>
+      <c r="K90">
+        <v>361845840</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>750</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>64800</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>42125061</v>
+      </c>
+      <c r="G91">
+        <v>7919</v>
+      </c>
+      <c r="H91">
+        <v>13</v>
+      </c>
+      <c r="I91">
+        <v>68005058</v>
+      </c>
+      <c r="J91">
+        <v>221111035</v>
+      </c>
+      <c r="K91">
+        <v>272020232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>750</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>168200</v>
+      </c>
+      <c r="D92">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92">
+        <v>252307094</v>
+      </c>
+      <c r="G92">
+        <v>12202</v>
+      </c>
+      <c r="H92">
+        <v>30</v>
+      </c>
+      <c r="I92">
+        <v>41363359</v>
+      </c>
+      <c r="J92">
+        <v>92452189</v>
+      </c>
+      <c r="K92">
+        <v>165453436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>750</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>168200</v>
+      </c>
+      <c r="D93">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <v>784821200</v>
+      </c>
+      <c r="G93">
+        <v>6062</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>43013686</v>
+      </c>
+      <c r="J93">
+        <v>92452189</v>
+      </c>
+      <c r="K93">
+        <v>172054744</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>750</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>168200</v>
+      </c>
+      <c r="D94">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <v>341782400</v>
+      </c>
+      <c r="G94">
+        <v>2555</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>41313386</v>
+      </c>
+      <c r="J94">
+        <v>92452189</v>
+      </c>
+      <c r="K94">
+        <v>165253544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>750</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>168200</v>
+      </c>
+      <c r="D95">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95">
+        <v>42050000</v>
+      </c>
+      <c r="G95">
+        <v>250</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>38559062</v>
+      </c>
+      <c r="J95">
+        <v>92452189</v>
+      </c>
+      <c r="K95">
+        <v>154236248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>750</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <v>168200</v>
+      </c>
+      <c r="D96">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>126155641</v>
+      </c>
+      <c r="G96">
+        <v>8850</v>
+      </c>
+      <c r="H96">
+        <v>15</v>
+      </c>
+      <c r="I96">
+        <v>43013686</v>
+      </c>
+      <c r="J96">
+        <v>92452189</v>
+      </c>
+      <c r="K96">
+        <v>172054744</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K96" xr:uid="{560D11BB-576A-4713-9EA2-C150597583ED}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K96">
+      <sortCondition ref="C1:C96"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B566628-2076-4E6D-943C-A08C22D45EC9}">
-  <dimension ref="A3:G14"/>
+  <dimension ref="A3:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F13"/>
+      <selection activeCell="A4" sqref="A4:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -2872,15 +7179,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -2903,7 +7210,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>50</v>
       </c>
       <c r="B5" s="1">
@@ -2926,7 +7233,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>200</v>
       </c>
       <c r="B6" s="1">
@@ -2949,7 +7256,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>450</v>
       </c>
       <c r="B7" s="1">
@@ -2972,7 +7279,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>800</v>
       </c>
       <c r="B8" s="1">
@@ -2995,7 +7302,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>2450</v>
       </c>
       <c r="B9" s="1">
@@ -3018,1980 +7325,903 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2254395</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2250000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6540000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5505338</v>
+      </c>
+      <c r="F10" s="1">
+        <v>18210000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>34759733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>7200</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>4324458</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>3240000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>9936000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>9005455</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <v>27907200</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <v>54413113</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9800</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4904486</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3430000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16954000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11275371</v>
+      </c>
+      <c r="F12" s="1">
+        <v>34946800</v>
+      </c>
+      <c r="G12" s="1">
+        <v>71510657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12800</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5124518</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4480000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22297600</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14725539</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45081600</v>
+      </c>
+      <c r="G13" s="1">
+        <v>91709257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>16200</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8104242</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5670000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>26406000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18635989</v>
+      </c>
+      <c r="F14" s="1">
+        <v>55242000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>114058231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>20000</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B15" s="1">
         <v>10004866</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C15" s="1">
         <v>7000000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D15" s="1">
         <v>36640000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E15" s="1">
         <v>23005653</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F15" s="1">
         <v>75680000</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G15" s="1">
         <v>152330519</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>22050</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11029672</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7717500</v>
+      </c>
+      <c r="D16" s="1">
+        <v>37970100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>27568131</v>
+      </c>
+      <c r="F16" s="1">
+        <v>83349000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>167634403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>26450</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14552199</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9257500</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41685200</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30423103</v>
+      </c>
+      <c r="F17" s="1">
+        <v>95431600</v>
+      </c>
+      <c r="G17" s="1">
+        <v>191349602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>32768</v>
+      </c>
+      <c r="B18" s="1">
+        <v>19665878</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11468800</v>
+      </c>
+      <c r="D18" s="1">
+        <v>53411840</v>
+      </c>
+      <c r="E18" s="1">
+        <v>37688927</v>
+      </c>
+      <c r="F18" s="1">
+        <v>109576192</v>
+      </c>
+      <c r="G18" s="1">
+        <v>231811637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>39200</v>
+      </c>
+      <c r="B19" s="1">
+        <v>23524986</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13720000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>64366400</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45085703</v>
+      </c>
+      <c r="F19" s="1">
+        <v>136416000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>283113089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B20" s="1">
+        <v>27004864</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15750000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>73530000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>51755845</v>
+      </c>
+      <c r="F20" s="1">
+        <v>162000000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>330040709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>54450</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35397709</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19057500</v>
+      </c>
+      <c r="D21" s="1">
+        <v>89298000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>70791230</v>
+      </c>
+      <c r="F21" s="1">
+        <v>203860800</v>
+      </c>
+      <c r="G21" s="1">
+        <v>418405239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>64800</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B22" s="1">
         <v>42125061</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C22" s="1">
         <v>16200000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D22" s="1">
         <v>133617600</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E22" s="1">
         <v>81006561</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F22" s="1">
         <v>246758400</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G22" s="1">
         <v>519707622</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>168200</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B23" s="1">
         <v>126155641</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C23" s="1">
         <v>42050000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D23" s="1">
         <v>341782400</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E23" s="1">
         <v>252307094</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F23" s="1">
         <v>784821200</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G23" s="1">
         <v>1547116335</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
-        <v>184459377</v>
-      </c>
-      <c r="C14" s="1">
-        <v>70177500</v>
-      </c>
-      <c r="D14" s="1">
-        <v>528563700</v>
-      </c>
-      <c r="E14" s="1">
-        <v>369484652</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1149566100</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2302251329</v>
+      <c r="B24" s="1">
+        <v>336022326</v>
+      </c>
+      <c r="C24" s="1">
+        <v>162978800</v>
+      </c>
+      <c r="D24" s="1">
+        <v>961022840</v>
+      </c>
+      <c r="E24" s="1">
+        <v>682939828</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2093680092</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4236643886</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>750</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>47469</v>
-      </c>
-      <c r="G2">
-        <v>8277</v>
-      </c>
-      <c r="H2">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>19041282836</v>
-      </c>
-      <c r="J2">
-        <v>46704750402</v>
-      </c>
-      <c r="K2">
-        <v>76165131344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>750</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>144500</v>
-      </c>
-      <c r="G3">
-        <v>3846</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>22971466707.5</v>
-      </c>
-      <c r="J3">
-        <v>46704750402</v>
-      </c>
-      <c r="K3">
-        <v>91885866830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>750</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>142900</v>
-      </c>
-      <c r="G4">
-        <v>3814</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>17622591234.5</v>
-      </c>
-      <c r="J4">
-        <v>46704750402</v>
-      </c>
-      <c r="K4">
-        <v>70490364938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>750</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>17500</v>
-      </c>
-      <c r="G5">
-        <v>350</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>17622591234.5</v>
-      </c>
-      <c r="J5">
-        <v>46704750402</v>
-      </c>
-      <c r="K5">
-        <v>70490364938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>750</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>20077</v>
-      </c>
-      <c r="G6">
-        <v>4092</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>22238705690</v>
-      </c>
-      <c r="J6">
-        <v>46704750402</v>
-      </c>
-      <c r="K6">
-        <v>88954822760</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>750</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>174671</v>
-      </c>
-      <c r="G7">
-        <v>7852</v>
-      </c>
-      <c r="H7">
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <v>10882497896</v>
-      </c>
-      <c r="J7">
-        <v>27141628107</v>
-      </c>
-      <c r="K7">
-        <v>43529991584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>750</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>561200</v>
-      </c>
-      <c r="G8">
-        <v>3765</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>13015107038.5</v>
-      </c>
-      <c r="J8">
-        <v>27141628107</v>
-      </c>
-      <c r="K8">
-        <v>52060428154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>750</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>441600</v>
-      </c>
-      <c r="G9">
-        <v>2926</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>9484639378</v>
-      </c>
-      <c r="J9">
-        <v>27141628107</v>
-      </c>
-      <c r="K9">
-        <v>37938557512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>750</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>200</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>50000</v>
-      </c>
-      <c r="G10">
-        <v>250</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>9364553975</v>
-      </c>
-      <c r="J10">
-        <v>27141628107</v>
-      </c>
-      <c r="K10">
-        <v>37458215900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>750</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>72819</v>
-      </c>
-      <c r="G11">
-        <v>4410</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>12500224622.5</v>
-      </c>
-      <c r="J11">
-        <v>27141628107</v>
-      </c>
-      <c r="K11">
-        <v>50000898490</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>750</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>450</v>
-      </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>432389</v>
-      </c>
-      <c r="G12">
-        <v>8334</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
-      <c r="I12">
-        <v>5362282703</v>
-      </c>
-      <c r="J12">
-        <v>14949342090</v>
-      </c>
-      <c r="K12">
-        <v>21449130812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>750</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>450</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>1487700</v>
-      </c>
-      <c r="G13">
-        <v>4416</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>7374681546.5</v>
-      </c>
-      <c r="J13">
-        <v>14949342090</v>
-      </c>
-      <c r="K13">
-        <v>29498726186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>750</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>450</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>935100</v>
-      </c>
-      <c r="G14">
-        <v>2706</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>4516223851.5</v>
-      </c>
-      <c r="J14">
-        <v>14949342090</v>
-      </c>
-      <c r="K14">
-        <v>18064895406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>750</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>450</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>157500</v>
-      </c>
-      <c r="G15">
-        <v>350</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>5062406586</v>
-      </c>
-      <c r="J15">
-        <v>14949342090</v>
-      </c>
-      <c r="K15">
-        <v>20249626344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>750</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>450</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16">
-        <v>205679</v>
-      </c>
-      <c r="G16">
-        <v>5068</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <v>7150388072.5</v>
-      </c>
-      <c r="J16">
-        <v>14949342090</v>
-      </c>
-      <c r="K16">
-        <v>28601552290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>750</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>800</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>805012</v>
-      </c>
-      <c r="G17">
-        <v>8564</v>
-      </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="I17">
-        <v>4893299194</v>
-      </c>
-      <c r="J17">
-        <v>10159232252</v>
-      </c>
-      <c r="K17">
-        <v>19573196776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>750</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>800</v>
-      </c>
-      <c r="D18">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>2744000</v>
-      </c>
-      <c r="G18">
-        <v>4590</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>2626625874.5</v>
-      </c>
-      <c r="J18">
-        <v>10159232252</v>
-      </c>
-      <c r="K18">
-        <v>10506503498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>750</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>800</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>1966400</v>
-      </c>
-      <c r="G19">
-        <v>3279</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>2548765198.5</v>
-      </c>
-      <c r="J19">
-        <v>10159232252</v>
-      </c>
-      <c r="K19">
-        <v>10195060794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>750</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>800</v>
-      </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20">
-        <v>360000</v>
-      </c>
-      <c r="G20">
-        <v>450</v>
-      </c>
-      <c r="H20">
-        <v>9</v>
-      </c>
-      <c r="I20">
-        <v>3521309872</v>
-      </c>
-      <c r="J20">
-        <v>10159232252</v>
-      </c>
-      <c r="K20">
-        <v>14085239488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>750</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>800</v>
-      </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21">
-        <v>444123</v>
-      </c>
-      <c r="G21">
-        <v>6520</v>
-      </c>
-      <c r="H21">
-        <v>11</v>
-      </c>
-      <c r="I21">
-        <v>4374122131</v>
-      </c>
-      <c r="J21">
-        <v>10159232252</v>
-      </c>
-      <c r="K21">
-        <v>17496488524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>750</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>2450</v>
-      </c>
-      <c r="D22">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22">
-        <v>2700348</v>
-      </c>
-      <c r="G22">
-        <v>9198</v>
-      </c>
-      <c r="H22">
-        <v>22</v>
-      </c>
-      <c r="I22">
-        <v>2033123842.5</v>
-      </c>
-      <c r="J22">
-        <v>4377943536</v>
-      </c>
-      <c r="K22">
-        <v>8132495370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>750</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>2450</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23">
-        <v>9461900</v>
-      </c>
-      <c r="G23">
-        <v>5133</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23">
-        <v>1154518918.5</v>
-      </c>
-      <c r="J23">
-        <v>4377943536</v>
-      </c>
-      <c r="K23">
-        <v>4618075674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>750</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>2450</v>
-      </c>
-      <c r="D24">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24">
-        <v>3101700</v>
-      </c>
-      <c r="G24">
-        <v>1618</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1624381079.5</v>
-      </c>
-      <c r="J24">
-        <v>4377943536</v>
-      </c>
-      <c r="K24">
-        <v>6497524318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>750</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <v>2450</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>1102500</v>
-      </c>
-      <c r="G25">
-        <v>450</v>
-      </c>
-      <c r="H25">
-        <v>9</v>
-      </c>
-      <c r="I25">
-        <v>1538173169</v>
-      </c>
-      <c r="J25">
-        <v>4377943536</v>
-      </c>
-      <c r="K25">
-        <v>6152692676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>750</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>2450</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26">
-        <v>1106653</v>
-      </c>
-      <c r="G26">
-        <v>6368</v>
-      </c>
-      <c r="H26">
-        <v>9</v>
-      </c>
-      <c r="I26">
-        <v>1367782123.5</v>
-      </c>
-      <c r="J26">
-        <v>4377943536</v>
-      </c>
-      <c r="K26">
-        <v>5471128494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>750</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>7200</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27">
-        <v>9005455</v>
-      </c>
-      <c r="G27">
-        <v>9584</v>
-      </c>
-      <c r="H27">
-        <v>25</v>
-      </c>
-      <c r="I27">
-        <v>722594537.5</v>
-      </c>
-      <c r="J27">
-        <v>1677350028</v>
-      </c>
-      <c r="K27">
-        <v>2890378150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>750</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>7200</v>
-      </c>
-      <c r="D28">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <v>27907200</v>
-      </c>
-      <c r="G28">
-        <v>5170</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>699493169</v>
-      </c>
-      <c r="J28">
-        <v>1677350028</v>
-      </c>
-      <c r="K28">
-        <v>2797972676</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>750</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29">
-        <v>7200</v>
-      </c>
-      <c r="D29">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <v>9936000</v>
-      </c>
-      <c r="G29">
-        <v>1772</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>638429206</v>
-      </c>
-      <c r="J29">
-        <v>1677350028</v>
-      </c>
-      <c r="K29">
-        <v>2553716824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>750</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30">
-        <v>7200</v>
-      </c>
-      <c r="D30">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <v>3240000</v>
-      </c>
-      <c r="G30">
-        <v>450</v>
-      </c>
-      <c r="H30">
-        <v>9</v>
-      </c>
-      <c r="I30">
-        <v>587478147</v>
-      </c>
-      <c r="J30">
-        <v>1677350028</v>
-      </c>
-      <c r="K30">
-        <v>2349912588</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>750</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>7200</v>
-      </c>
-      <c r="D31">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31">
-        <v>4324458</v>
-      </c>
-      <c r="G31">
-        <v>7023</v>
-      </c>
-      <c r="H31">
-        <v>12</v>
-      </c>
-      <c r="I31">
-        <v>677633226.5</v>
-      </c>
-      <c r="J31">
-        <v>1677350028</v>
-      </c>
-      <c r="K31">
-        <v>2710532906</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>750</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>20000</v>
-      </c>
-      <c r="D32">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32">
-        <v>23005653</v>
-      </c>
-      <c r="G32">
-        <v>9678</v>
-      </c>
-      <c r="H32">
-        <v>23</v>
-      </c>
-      <c r="I32">
-        <v>276259777.5</v>
-      </c>
-      <c r="J32">
-        <v>652896992</v>
-      </c>
-      <c r="K32">
-        <v>1105039110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>750</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>20000</v>
-      </c>
-      <c r="D33">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33">
-        <v>75680000</v>
-      </c>
-      <c r="G33">
-        <v>4947</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="I33">
-        <v>179029586</v>
-      </c>
-      <c r="J33">
-        <v>652896992</v>
-      </c>
-      <c r="K33">
-        <v>716118344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>750</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34">
-        <v>20000</v>
-      </c>
-      <c r="D34">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <v>36640000</v>
-      </c>
-      <c r="G34">
-        <v>2328</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>265023157</v>
-      </c>
-      <c r="J34">
-        <v>652896992</v>
-      </c>
-      <c r="K34">
-        <v>1060092628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>750</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35">
-        <v>20000</v>
-      </c>
-      <c r="D35">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35">
-        <v>7000000</v>
-      </c>
-      <c r="G35">
-        <v>350</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="I35">
-        <v>236633829.5</v>
-      </c>
-      <c r="J35">
-        <v>652896992</v>
-      </c>
-      <c r="K35">
-        <v>946535318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>750</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>20000</v>
-      </c>
-      <c r="D36">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36">
-        <v>10004866</v>
-      </c>
-      <c r="G36">
-        <v>7407</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>223229678.5</v>
-      </c>
-      <c r="J36">
-        <v>652896992</v>
-      </c>
-      <c r="K36">
-        <v>892918714</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>750</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37">
-        <v>64800</v>
-      </c>
-      <c r="D37">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37">
-        <v>81006561</v>
-      </c>
-      <c r="G37">
-        <v>11076</v>
-      </c>
-      <c r="H37">
-        <v>25</v>
-      </c>
-      <c r="I37">
-        <v>92707282.5</v>
-      </c>
-      <c r="J37">
-        <v>221111035</v>
-      </c>
-      <c r="K37">
-        <v>370829130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>750</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>64800</v>
-      </c>
-      <c r="D38">
-        <v>25</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38">
-        <v>246758400</v>
-      </c>
-      <c r="G38">
-        <v>4928</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>109658223</v>
-      </c>
-      <c r="J38">
-        <v>221111035</v>
-      </c>
-      <c r="K38">
-        <v>438632892</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>750</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
-        <v>64800</v>
-      </c>
-      <c r="D39">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <v>133617600</v>
-      </c>
-      <c r="G39">
-        <v>2632</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>98947729.5</v>
-      </c>
-      <c r="J39">
-        <v>221111035</v>
-      </c>
-      <c r="K39">
-        <v>395790918</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>750</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
-        <v>64800</v>
-      </c>
-      <c r="D40">
-        <v>25</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40">
-        <v>16200000</v>
-      </c>
-      <c r="G40">
-        <v>250</v>
-      </c>
-      <c r="H40">
-        <v>5</v>
-      </c>
-      <c r="I40">
-        <v>90461460</v>
-      </c>
-      <c r="J40">
-        <v>221111035</v>
-      </c>
-      <c r="K40">
-        <v>361845840</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>750</v>
-      </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41">
-        <v>64800</v>
-      </c>
-      <c r="D41">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41">
-        <v>42125061</v>
-      </c>
-      <c r="G41">
-        <v>7919</v>
-      </c>
-      <c r="H41">
-        <v>13</v>
-      </c>
-      <c r="I41">
-        <v>68005058</v>
-      </c>
-      <c r="J41">
-        <v>221111035</v>
-      </c>
-      <c r="K41">
-        <v>272020232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>750</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42">
-        <v>168200</v>
-      </c>
-      <c r="D42">
-        <v>25</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42">
-        <v>252307094</v>
-      </c>
-      <c r="G42">
-        <v>12202</v>
-      </c>
-      <c r="H42">
-        <v>30</v>
-      </c>
-      <c r="I42">
-        <v>41363359</v>
-      </c>
-      <c r="J42">
-        <v>92452189</v>
-      </c>
-      <c r="K42">
-        <v>165453436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>750</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43">
-        <v>168200</v>
-      </c>
-      <c r="D43">
-        <v>25</v>
-      </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43">
-        <v>784821200</v>
-      </c>
-      <c r="G43">
-        <v>6062</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>43013686</v>
-      </c>
-      <c r="J43">
-        <v>92452189</v>
-      </c>
-      <c r="K43">
-        <v>172054744</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>750</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44">
-        <v>168200</v>
-      </c>
-      <c r="D44">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44">
-        <v>341782400</v>
-      </c>
-      <c r="G44">
-        <v>2555</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>41313386</v>
-      </c>
-      <c r="J44">
-        <v>92452189</v>
-      </c>
-      <c r="K44">
-        <v>165253544</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>750</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45">
-        <v>168200</v>
-      </c>
-      <c r="D45">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45">
-        <v>42050000</v>
-      </c>
-      <c r="G45">
-        <v>250</v>
-      </c>
-      <c r="H45">
-        <v>5</v>
-      </c>
-      <c r="I45">
-        <v>38559062</v>
-      </c>
-      <c r="J45">
-        <v>92452189</v>
-      </c>
-      <c r="K45">
-        <v>154236248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>750</v>
-      </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46">
-        <v>168200</v>
-      </c>
-      <c r="D46">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46">
-        <v>126155641</v>
-      </c>
-      <c r="G46">
-        <v>8850</v>
-      </c>
-      <c r="H46">
-        <v>15</v>
-      </c>
-      <c r="I46">
-        <v>43013686</v>
-      </c>
-      <c r="J46">
-        <v>92452189</v>
-      </c>
-      <c r="K46">
-        <v>172054744</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K46" xr:uid="{0D32D908-E04E-4AA0-B938-0DF4CA0EA9D2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
-      <sortCondition ref="C1:C46"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639EEDC-8664-4954-A7FC-1E6621A965EC}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1">
-        <v>144500</v>
-      </c>
-      <c r="C2" s="1">
-        <v>142900</v>
-      </c>
-      <c r="D2" s="1">
-        <v>47469</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20077</v>
-      </c>
-      <c r="F2" s="1">
-        <v>17500</v>
+      <c r="A2" s="4">
+        <v>200</v>
+      </c>
+      <c r="B2" s="4">
+        <v>561200</v>
+      </c>
+      <c r="C2" s="4">
+        <v>441600</v>
+      </c>
+      <c r="D2" s="4">
+        <v>174671</v>
+      </c>
+      <c r="E2" s="4">
+        <v>72819</v>
+      </c>
+      <c r="F2" s="4">
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>200</v>
-      </c>
-      <c r="B3" s="1">
-        <v>561200</v>
-      </c>
-      <c r="C3" s="1">
-        <v>441600</v>
-      </c>
-      <c r="D3" s="1">
-        <v>174671</v>
-      </c>
-      <c r="E3" s="1">
-        <v>72819</v>
-      </c>
-      <c r="F3" s="1">
-        <v>50000</v>
+      <c r="A3" s="4">
+        <v>450</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1487700</v>
+      </c>
+      <c r="C3" s="4">
+        <v>935100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>432389</v>
+      </c>
+      <c r="E3" s="4">
+        <v>205679</v>
+      </c>
+      <c r="F3" s="4">
+        <v>157500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>450</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1487700</v>
-      </c>
-      <c r="C4" s="1">
-        <v>935100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>432389</v>
-      </c>
-      <c r="E4" s="1">
-        <v>205679</v>
-      </c>
-      <c r="F4" s="1">
-        <v>157500</v>
+      <c r="A4" s="4">
+        <v>800</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2744000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1966400</v>
+      </c>
+      <c r="D4" s="5">
+        <v>805012</v>
+      </c>
+      <c r="E4" s="5">
+        <v>444123</v>
+      </c>
+      <c r="F4" s="5">
+        <v>360000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>800</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2744000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1966400</v>
-      </c>
-      <c r="D5" s="1">
-        <v>805012</v>
-      </c>
-      <c r="E5" s="1">
-        <v>444123</v>
-      </c>
-      <c r="F5" s="1">
-        <v>360000</v>
+      <c r="A5" s="4">
+        <v>2450</v>
+      </c>
+      <c r="B5" s="4">
+        <v>9461900</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3101700</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2700348</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1106653</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1102500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>2450</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9461900</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3101700</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2700348</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1106653</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1102500</v>
+      <c r="A6" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>18210000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6540000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5505338</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2254395</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2250000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>7200</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>27907200</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>9936000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>9005455</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>4324458</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>3240000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
+        <v>9800</v>
+      </c>
+      <c r="B8" s="4">
+        <v>34946800</v>
+      </c>
+      <c r="C8" s="4">
+        <v>16954000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>11275371</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4904486</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3430000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>12800</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45081600</v>
+      </c>
+      <c r="C9" s="5">
+        <v>22297600</v>
+      </c>
+      <c r="D9" s="5">
+        <v>14725539</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5124518</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>16200</v>
+      </c>
+      <c r="B10" s="4">
+        <v>55242000</v>
+      </c>
+      <c r="C10" s="4">
+        <v>26406000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>18635989</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8104242</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5670000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>20000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B11" s="4">
         <v>75680000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C11" s="4">
         <v>36640000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D11" s="4">
         <v>23005653</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E11" s="4">
         <v>10004866</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F11" s="4">
         <v>7000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>22050</v>
+      </c>
+      <c r="B12" s="4">
+        <v>83349000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>37970100</v>
+      </c>
+      <c r="D12" s="4">
+        <v>27568131</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11029672</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7717500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>26450</v>
+      </c>
+      <c r="B13" s="4">
+        <v>95431600</v>
+      </c>
+      <c r="C13" s="4">
+        <v>41685200</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30423103</v>
+      </c>
+      <c r="E13" s="4">
+        <v>14552199</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9257500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>32768</v>
+      </c>
+      <c r="B14" s="4">
+        <v>109576192</v>
+      </c>
+      <c r="C14" s="4">
+        <v>53411840</v>
+      </c>
+      <c r="D14" s="4">
+        <v>37688927</v>
+      </c>
+      <c r="E14" s="4">
+        <v>19665878</v>
+      </c>
+      <c r="F14" s="4">
+        <v>11468800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>39200</v>
+      </c>
+      <c r="B15" s="4">
+        <v>136416000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>64366400</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45085703</v>
+      </c>
+      <c r="E15" s="4">
+        <v>23524986</v>
+      </c>
+      <c r="F15" s="4">
+        <v>13720000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45000</v>
+      </c>
+      <c r="B16" s="4">
+        <v>162000000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>73530000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>51755845</v>
+      </c>
+      <c r="E16" s="4">
+        <v>27004864</v>
+      </c>
+      <c r="F16" s="4">
+        <v>15750000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>54450</v>
+      </c>
+      <c r="B17" s="4">
+        <v>203860800</v>
+      </c>
+      <c r="C17" s="4">
+        <v>89298000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>70791230</v>
+      </c>
+      <c r="E17" s="4">
+        <v>35397709</v>
+      </c>
+      <c r="F17" s="4">
+        <v>19057500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>64800</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B18" s="4">
         <v>246758400</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C18" s="4">
         <v>133617600</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D18" s="4">
         <v>81006561</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E18" s="4">
         <v>42125061</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F18" s="4">
         <v>16200000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>168200</v>
-      </c>
-      <c r="B10" s="1">
-        <v>784821200</v>
-      </c>
-      <c r="C10" s="1">
-        <v>341782400</v>
-      </c>
-      <c r="D10" s="1">
-        <v>252307094</v>
-      </c>
-      <c r="E10" s="1">
-        <v>126155641</v>
-      </c>
-      <c r="F10" s="1">
-        <v>42050000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f t="shared" ref="B11:D11" si="0">B10/$F$10</f>
-        <v>18.664000000000001</v>
-      </c>
-      <c r="C11">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="Q32">
+        <v>320.58</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:R35" si="0">Q32/$Q$32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="Q33">
+        <v>611.65</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="0"/>
-        <v>8.1280000000000001</v>
-      </c>
-      <c r="D11">
+        <v>1.9079480940794811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="Q34">
+        <v>1215.7</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="0"/>
-        <v>6.0001687039239</v>
-      </c>
-      <c r="E11">
-        <f>E10/$F$10</f>
-        <v>3.0001341498216409</v>
-      </c>
+        <v>3.7921891571526611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="Q35">
+        <v>1770.3</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>5.5221785513756316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="Q36">
+        <v>3668.5</v>
+      </c>
+      <c r="R36">
+        <f>Q36/$Q$32</f>
+        <v>11.443321479817831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
